--- a/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND8/cond8_loc5_processed.xlsx
+++ b/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND8/cond8_loc5_processed.xlsx
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08032213107822396</v>
+        <v>80.32213107822396</v>
       </c>
     </row>
   </sheetData>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.02282157676348548</v>
+        <v>2.282157676348548</v>
       </c>
     </row>
   </sheetData>
